--- a/westeros_tutorial/input/Parameter_TechnologyParent_Cost_Fix.xlsx
+++ b/westeros_tutorial/input/Parameter_TechnologyParent_Cost_Fix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/MESSAGE-China/projects/westeros/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/message_westeros/westeros_tutorial/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CF833-DC99-B14F-A2C3-8EBFD0AEA5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F69DB1-4767-3846-95A8-73EF6091CA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3580" yWindow="-21100" windowWidth="30240" windowHeight="17360" xr2:uid="{6A43CB06-E55E-0F45-9223-72CF49A70756}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
